--- a/data/DengueCaseReporting[2012-23].xlsx
+++ b/data/DengueCaseReporting[2012-23].xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01 Projects\Dashboards\dengue-situation-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447653D0-A3F4-4817-85DB-EAE5887260D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7C1635-AA8C-4D5D-B973-AEB42D1E1ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dengue Cases 2012-2023" sheetId="1" r:id="rId1"/>
     <sheet name="Deaths" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Months</t>
   </si>
@@ -79,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,13 +100,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,15 +137,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -345,7 +369,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -678,83 +702,86 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>138</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>353</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>80</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>765</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>1451</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>346</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>1796</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>52636</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>68</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>7698</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>3521</v>
       </c>
-      <c r="M9" s="2">
-        <v>69668</v>
+      <c r="M9" s="3">
+        <v>71976</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>262</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>495</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>76</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>965</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>1544</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>430</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <v>3087</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>16856</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>47</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>7841</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>9911</v>
+      </c>
+      <c r="M10" s="4">
+        <v>6494</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -889,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434D647-C904-4EBE-9056-3E9E700EC43C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1080,37 +1107,43 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>83</v>
       </c>
-      <c r="I9" s="2">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>11</v>
       </c>
-      <c r="J9" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="J9" s="3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>25</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>34</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
+      <c r="J10" s="4">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -1176,4 +1209,303 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C32D2F0-D4B3-4E70-96CD-F3D6AE3FC434}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>105</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>83</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>34</v>
+      </c>
+      <c r="J10" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>86</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>113</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/DengueCaseReporting[2012-23].xlsx
+++ b/data/DengueCaseReporting[2012-23].xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01 Projects\Dashboards\dengue-situation-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7C1635-AA8C-4D5D-B973-AEB42D1E1ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C558A5E4-1D77-4EFE-B7CC-1BEF1429BFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dengue Cases 2012-2023" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -781,7 +781,7 @@
         <v>9911</v>
       </c>
       <c r="M10" s="4">
-        <v>6494</v>
+        <v>12108</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1143,7 @@
         <v>34</v>
       </c>
       <c r="J10" s="4">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C32D2F0-D4B3-4E70-96CD-F3D6AE3FC434}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/data/DengueCaseReporting[2012-23].xlsx
+++ b/data/DengueCaseReporting[2012-23].xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01 Projects\Dashboards\dengue-situation-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C558A5E4-1D77-4EFE-B7CC-1BEF1429BFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5021DA7-C061-41C8-95F7-62F98D05F721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dengue Cases 2012-2023" sheetId="1" r:id="rId1"/>
     <sheet name="Deaths" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Months</t>
   </si>
@@ -368,8 +367,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -916,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434D647-C904-4EBE-9056-3E9E700EC43C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1209,303 +1208,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C32D2F0-D4B3-4E70-96CD-F3D6AE3FC434}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>105</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <v>83</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <v>11</v>
-      </c>
-      <c r="J9" s="3">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>34</v>
-      </c>
-      <c r="J10" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>86</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>113</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>27</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/DengueCaseReporting[2012-23].xlsx
+++ b/data/DengueCaseReporting[2012-23].xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01 Projects\Dashboards\dengue-situation-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5021DA7-C061-41C8-95F7-62F98D05F721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538338A-0EB5-446C-883B-71C8001DCC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1605" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dengue Cases 2012-2023" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -989,15 +989,27 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
@@ -1009,15 +1021,27 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
@@ -1029,15 +1053,27 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
@@ -1049,15 +1085,27 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
@@ -1069,15 +1117,27 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
@@ -1089,15 +1149,27 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="1">
         <v>35</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="1">
         <v>9</v>
       </c>
@@ -1109,15 +1181,27 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
       <c r="F9" s="3">
         <v>83</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="3">
         <v>11</v>
       </c>
@@ -1129,15 +1213,27 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="4">
         <v>25</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="4">
         <v>34</v>
       </c>
@@ -1149,15 +1245,27 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="1">
         <v>11</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="1">
         <v>86</v>
       </c>
@@ -1169,15 +1277,27 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1">
         <v>113</v>
       </c>
@@ -1189,15 +1309,27 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1">
         <v>27</v>
       </c>

--- a/data/DengueCaseReporting[2012-23].xlsx
+++ b/data/DengueCaseReporting[2012-23].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01 Projects\Dashboards\dengue-situation-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538338A-0EB5-446C-883B-71C8001DCC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9AE0A-F4FA-44FF-B6CC-006EFF7ED94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1605" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -780,7 +780,7 @@
         <v>9911</v>
       </c>
       <c r="M10" s="4">
-        <v>12108</v>
+        <v>14214</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1238,7 +1238,7 @@
         <v>34</v>
       </c>
       <c r="J10" s="4">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">

--- a/data/DengueCaseReporting[2012-23].xlsx
+++ b/data/DengueCaseReporting[2012-23].xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01 Projects\Dashboards\dengue-situation-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9AE0A-F4FA-44FF-B6CC-006EFF7ED94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD516CB7-89B0-441A-B786-BA70ACE8C2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1605" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dengue Cases 2012-2023" sheetId="1" r:id="rId1"/>
@@ -90,6 +90,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,8 +368,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -780,7 +781,7 @@
         <v>9911</v>
       </c>
       <c r="M10" s="4">
-        <v>14214</v>
+        <v>21527</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -915,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434D647-C904-4EBE-9056-3E9E700EC43C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1238,7 +1239,7 @@
         <v>34</v>
       </c>
       <c r="J10" s="4">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">

--- a/data/DengueCaseReporting[2012-23].xlsx
+++ b/data/DengueCaseReporting[2012-23].xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01 Projects\Dashboards\dengue-situation-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD516CB7-89B0-441A-B786-BA70ACE8C2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49139A72-502D-4E1F-952F-3132856979B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dengue Cases 2012-2023" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -781,7 +781,7 @@
         <v>9911</v>
       </c>
       <c r="M10" s="4">
-        <v>21527</v>
+        <v>27464</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434D647-C904-4EBE-9056-3E9E700EC43C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1239,7 @@
         <v>34</v>
       </c>
       <c r="J10" s="4">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
